--- a/ТестовыеСценарииDemo.xlsx
+++ b/ТестовыеСценарииDemo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.larionov\Desktop\Документы\Тестовая документация\СПВ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D310FDC-B865-49A5-AFA9-2EF4B868DE62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38002ED9-AB19-4743-BFAB-9ACB1AA9FD8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9990" xr2:uid="{B52E3B00-153A-4059-ACC8-8DAAECC1458F}"/>
   </bookViews>
@@ -178,89 +178,89 @@
 4. Сравнение полученной информации в rfid_result.xml</t>
   </si>
   <si>
-    <t>MRTDD.S1.1</t>
-  </si>
-  <si>
-    <t>MRTDD0001</t>
-  </si>
-  <si>
-    <t>MRTDD.S1.2</t>
-  </si>
-  <si>
-    <t>1. MRTDD0002
-2. MRTDD0003</t>
-  </si>
-  <si>
-    <t>MRTDD.S1.3</t>
-  </si>
-  <si>
-    <t>1. MRTDD0004
-2. MRTDD0005
-3. MRTDD0006
-4. MRTDD0030
-5. MRTDD0031</t>
-  </si>
-  <si>
-    <t>MRTDD.S1.4</t>
-  </si>
-  <si>
-    <t>MRTDD0007</t>
-  </si>
-  <si>
-    <t>MRTDD.S1.5</t>
-  </si>
-  <si>
-    <t>1. MRTDD0008
-2. MRTDD0009</t>
-  </si>
-  <si>
-    <t>MRTDD.S1.6</t>
-  </si>
-  <si>
-    <t>1. MRTDD0010
-2. MRTDD0011
-3. MRTDD0012
-4. MRTDD0013</t>
-  </si>
-  <si>
-    <t>MRTDD.S1.7</t>
-  </si>
-  <si>
-    <t>1. MRTDD0014
-2. MRTDD0015</t>
-  </si>
-  <si>
-    <t>MRTDD.S1.8</t>
-  </si>
-  <si>
-    <t>1. MRTDD0016
-2. MRTDD0017
-3. MRTDD0018
-4. MRTDD0019
-5. MRTDD0020
-6. MRTDD0021
-7. MRTDD0022
-8. MRTDD0023</t>
-  </si>
-  <si>
-    <t>MRTDD.S1.9</t>
-  </si>
-  <si>
-    <t>1. MRTDD0024
-2. MRTDD0025
-3. MRTDD0026
-4. MRTDD0027
-5. MRTDD0028
-6. MRTDD0029</t>
-  </si>
-  <si>
-    <t>MRTDD.S1.10</t>
-  </si>
-  <si>
-    <t>1. MRTDD0032
-2. MRTDD0033
-3. MRTDD0034  
-4. MRTDD0035</t>
+    <t>1. MRTD-D032
+2. MRTD-D033
+3. MRTD-D034  
+4. MRTD-D035</t>
+  </si>
+  <si>
+    <t>1. MRTD-D024
+2. MRTD-D025
+3. MRTD-D026
+4. MRTD-D027
+5. MRTD-D028
+6. MRTD-D029</t>
+  </si>
+  <si>
+    <t>MRTD-D.S1.10</t>
+  </si>
+  <si>
+    <t>MRTD-D.S1.9</t>
+  </si>
+  <si>
+    <t>MRTD-D.S1.8</t>
+  </si>
+  <si>
+    <t>1. MRTD-D016
+2. MRTD-D017
+3. MRTD-D018
+4. MRTD-D019
+5. MRTD-D020
+6. MRTD-D021
+7. MRTD-D022
+8. MRTD-D023</t>
+  </si>
+  <si>
+    <t>1. MRTD-D014
+2. MRTD-D015</t>
+  </si>
+  <si>
+    <t>MRTD-D.S1.7</t>
+  </si>
+  <si>
+    <t>1. MRTD-D010
+2. MRTD-D011
+3. MRTD-D012
+4. MRTD-D013</t>
+  </si>
+  <si>
+    <t>MRTD-D.S1.6</t>
+  </si>
+  <si>
+    <t>MRTD-D.S1.5</t>
+  </si>
+  <si>
+    <t>1. MRTD-D008
+2. MRTD-D009</t>
+  </si>
+  <si>
+    <t>MRTD-D007</t>
+  </si>
+  <si>
+    <t>MRTD-D.S1.4</t>
+  </si>
+  <si>
+    <t>1. MRTD-D004
+2. MRTD-D005
+3. MRTD-D006
+4. MRTD-D030
+5. MRTD-D031</t>
+  </si>
+  <si>
+    <t>MRTD-D.S1.3</t>
+  </si>
+  <si>
+    <t>MRTD-D.S1.2</t>
+  </si>
+  <si>
+    <t>MRTD-D.S1.1</t>
+  </si>
+  <si>
+    <t>1. MRTD-D002
+2. MRTD-D003</t>
+  </si>
+  <si>
+    <t>MRTD-D001</t>
   </si>
 </sst>
 </file>
@@ -803,7 +803,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,13 +837,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>4</v>
@@ -854,13 +854,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>6</v>
@@ -871,13 +871,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>22</v>
@@ -888,13 +888,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>9</v>
@@ -905,13 +905,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>11</v>
@@ -922,13 +922,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>13</v>
@@ -939,13 +939,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>15</v>
@@ -956,13 +956,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>17</v>
@@ -973,30 +973,30 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>24</v>

--- a/ТестовыеСценарииDemo.xlsx
+++ b/ТестовыеСценарииDemo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.larionov\Desktop\Документы\Тестовая документация\СПВ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38002ED9-AB19-4743-BFAB-9ACB1AA9FD8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168DCA72-057A-49CC-84FD-07536B6823A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9990" xr2:uid="{B52E3B00-153A-4059-ACC8-8DAAECC1458F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t xml:space="preserve">Номер сценария </t>
   </si>
@@ -39,16 +39,9 @@
     <t>Проверка установки приложения</t>
   </si>
   <si>
-    <t>Установка ПО Regula SDK</t>
-  </si>
-  <si>
     <t>Проверка запуска приложения</t>
   </si>
   <si>
-    <t>1. Наличие ПО Regula
-2. Запуск приложения «Тестовое приложение»</t>
-  </si>
-  <si>
     <t>Проверка подключения и отключения считывателя</t>
   </si>
   <si>
@@ -61,17 +54,111 @@
     <t xml:space="preserve">Считывание документов  </t>
   </si>
   <si>
+    <t xml:space="preserve">Проверка рабочей области "Страницы документа"  </t>
+  </si>
+  <si>
+    <t>Проверка рабочей области «Схема освещения»</t>
+  </si>
+  <si>
+    <t>1. Появление изображений в области «Схема освещения»
+2. Выбор изображения из области «Схема освещения»</t>
+  </si>
+  <si>
+    <t>Проверка рабочей области «Данные документа»</t>
+  </si>
+  <si>
+    <t>Проверка рабочей области «Результаты проверки»</t>
+  </si>
+  <si>
+    <t>ID Тест-кейса</t>
+  </si>
+  <si>
+    <t>ID Сценария</t>
+  </si>
+  <si>
+    <t>Проверка наличия полученной информации от считывателя</t>
+  </si>
+  <si>
+    <t>1. Наличие изображений в папке reader
+2. Сравнение полученной информации в ocr_result.xml
+3. Наличие изображений в папке rfid
+4. Сравнение полученной информации в rfid_result.xml</t>
+  </si>
+  <si>
+    <t>1. MRTD-D032
+2. MRTD-D033
+3. MRTD-D034  
+4. MRTD-D035</t>
+  </si>
+  <si>
+    <t>MRTD-D.S1.10</t>
+  </si>
+  <si>
+    <t>MRTD-D.S1.9</t>
+  </si>
+  <si>
+    <t>MRTD-D.S1.8</t>
+  </si>
+  <si>
+    <t>1. MRTD-D014
+2. MRTD-D015</t>
+  </si>
+  <si>
+    <t>MRTD-D.S1.7</t>
+  </si>
+  <si>
+    <t>1. MRTD-D010
+2. MRTD-D011
+3. MRTD-D012
+4. MRTD-D013</t>
+  </si>
+  <si>
+    <t>MRTD-D.S1.6</t>
+  </si>
+  <si>
+    <t>MRTD-D.S1.5</t>
+  </si>
+  <si>
+    <t>1. MRTD-D008
+2. MRTD-D009</t>
+  </si>
+  <si>
+    <t>MRTD-D007</t>
+  </si>
+  <si>
+    <t>MRTD-D.S1.4</t>
+  </si>
+  <si>
+    <t>MRTD-D.S1.3</t>
+  </si>
+  <si>
+    <t>MRTD-D.S1.2</t>
+  </si>
+  <si>
+    <t>MRTD-D.S1.1</t>
+  </si>
+  <si>
+    <t>1. MRTD-D001
+2. MRTD-D002</t>
+  </si>
+  <si>
+    <t>1. Установка Regula SDK
+2. Установка ПО «СПВ-7024М»</t>
+  </si>
+  <si>
+    <t>Запуск приложения «Тестовое приложение»</t>
+  </si>
+  <si>
+    <t>MRTD-D003</t>
+  </si>
+  <si>
     <t>1. Считывание документа без интегральной микросхемой
-2. Считывание документа без интегральной микросхемы
-3.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверка рабочей области "Страницы документа"  </t>
+2. Считывание документа с интегральной микросхемы</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1. Появление изображение в области «Страницы документа»
-2. </t>
+      <t>1. Появление изображение в области «Страницы документа»
+2. Большое количество страниц в области «Страницы документов»</t>
     </r>
     <r>
       <rPr>
@@ -81,7 +168,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">Большое количество страниц в области «Страницы документов»
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -125,82 +212,6 @@
     </r>
   </si>
   <si>
-    <t>Проверка рабочей области «Схема освещения»</t>
-  </si>
-  <si>
-    <t>1. Появление изображений в области «Схема освещения»
-2. Выбор изображения из области «Схема освещения»</t>
-  </si>
-  <si>
-    <t>Проверка рабочей области «Данные документа»</t>
-  </si>
-  <si>
-    <t>1. Информация документа во вкладке «Текстовые элементы» 
-2. Сравнение МСЗ-ЗВП
-3. Сравнение МСЗ-ИС
-4. Сравнение ЗВП-ИС
-5. Переключение на вкладку «Графические элементы» после считывания документа
-6. Переключение на вкладку «Элементы защиты» после считывания документа
-7. Наличие знака проверок в виде зеленой галки в колонке «Результат проверки»  
-8. Наличие знака проверок в виде красного креста в колонке «Результат проверки»</t>
-  </si>
-  <si>
-    <t>Проверка рабочей области «Результаты проверки»</t>
-  </si>
-  <si>
-    <t>ID Тест-кейса</t>
-  </si>
-  <si>
-    <t>ID Сценария</t>
-  </si>
-  <si>
-    <t>1. Наличие знака проверок в виде зеленой галки в области «Результаты проверки»
-2. Наличие знака проверок в виде красного креста в области «Результаты проверки»
-3. Список несовпадающих элементов у пункта проверки «Сравнение текстовых данных»
-4. Список несовпадающих элементов у пункта проверки «Проверка элементов защиты»
-5. Отображение не совпадающего элемента из пункта «Сравнение текстовых данных»
-6. Отображение не совпадающего элемента из пункта «Сравнение текстовых данных»</t>
-  </si>
-  <si>
-    <t>1. Подключение считывателя в «Тестовое приложение»
-2. Отключение считывателя кнопкой «Отключение»
-3. Повторное подключение считывателя после нажатия кнопки «Отключение»
-4. Повторная инициализация после кратковременного отключения считывателя
-5. Отключение во время считывания</t>
-  </si>
-  <si>
-    <t>Проверка наличия полученной информации от считывателя</t>
-  </si>
-  <si>
-    <t>1. Наличие изображений в папке reader
-2. Сравнение полученной информации в ocr_result.xml
-3. Наличие изображений в папке rfid
-4. Сравнение полученной информации в rfid_result.xml</t>
-  </si>
-  <si>
-    <t>1. MRTD-D032
-2. MRTD-D033
-3. MRTD-D034  
-4. MRTD-D035</t>
-  </si>
-  <si>
-    <t>1. MRTD-D024
-2. MRTD-D025
-3. MRTD-D026
-4. MRTD-D027
-5. MRTD-D028
-6. MRTD-D029</t>
-  </si>
-  <si>
-    <t>MRTD-D.S1.10</t>
-  </si>
-  <si>
-    <t>MRTD-D.S1.9</t>
-  </si>
-  <si>
-    <t>MRTD-D.S1.8</t>
-  </si>
-  <si>
     <t>1. MRTD-D016
 2. MRTD-D017
 3. MRTD-D018
@@ -208,59 +219,61 @@
 5. MRTD-D020
 6. MRTD-D021
 7. MRTD-D022
-8. MRTD-D023</t>
-  </si>
-  <si>
-    <t>1. MRTD-D014
-2. MRTD-D015</t>
-  </si>
-  <si>
-    <t>MRTD-D.S1.7</t>
-  </si>
-  <si>
-    <t>1. MRTD-D010
-2. MRTD-D011
-3. MRTD-D012
-4. MRTD-D013</t>
-  </si>
-  <si>
-    <t>MRTD-D.S1.6</t>
-  </si>
-  <si>
-    <t>MRTD-D.S1.5</t>
-  </si>
-  <si>
-    <t>1. MRTD-D008
-2. MRTD-D009</t>
-  </si>
-  <si>
-    <t>MRTD-D007</t>
-  </si>
-  <si>
-    <t>MRTD-D.S1.4</t>
-  </si>
-  <si>
-    <t>1. MRTD-D004
+8. MRTD-D023
+9. MRTD-D024</t>
+  </si>
+  <si>
+    <t>1. Информация документа во вкладке «Текстовые элементы» 
+2. Сравнение МСЗ-ЗВП
+3. Сравнение МСЗ-ИС
+4. Сравнение ЗВП-ИС
+5. Переключение на вкладку «Графические элементы» после считывания документа
+6. Переключение на вкладку «Элементы защиты» после считывания документа
+7. Выбор типа проверки «Контроль контраста MRZ по изображению для схемы ИК-освещения» на вкладке «Элементы защиты»  
+8. Наличие знака проверок в виде зеленой галки в колонке «Результат проверки»
+9. Наличие знака проверок в виде красного креста в колонке «Результат проверки»</t>
+  </si>
+  <si>
+    <t>1. MRTD-D025
+2. MRTD-D026
+3. MRTD-D027
+4. MRTD-D028
+5. MRTD-D029
+6. MRTD-D030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Подключение считывателя в «Тестовое приложение»
+2. Отключение считывателя кнопкой «Отключение»
+3. Повторное подключение считывателя после нажатия кнопки «Отключение»
+4. Повторная инициализация после кратковременного отключения считывателя
+</t>
+  </si>
+  <si>
+    <t>1. Наличие знака проверок в виде зеленой галки в области «Результаты проверки»
+2. Наличие знака проверок в виде красного креста в области «Результаты проверки»
+3. Список несовпадающих элементов у пункта проверки «Сравнение текстовых данных»
+4. Список несовпадающих элементов у пункта проверки «Проверка элементов защиты»
+5. Отображение не совпадающего элемента из пункта «Сравнение текстовых данных»
+6. Отображение не совпадающего элемента из пункта «Проверка элементов защиты»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. MRTD-D004
 2. MRTD-D005
 3. MRTD-D006
-4. MRTD-D030
-5. MRTD-D031</t>
-  </si>
-  <si>
-    <t>MRTD-D.S1.3</t>
-  </si>
-  <si>
-    <t>MRTD-D.S1.2</t>
-  </si>
-  <si>
-    <t>MRTD-D.S1.1</t>
-  </si>
-  <si>
-    <t>1. MRTD-D002
-2. MRTD-D003</t>
-  </si>
-  <si>
-    <t>MRTD-D001</t>
+4. MRTD-D031
+</t>
+  </si>
+  <si>
+    <t>MRTD-D.S1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка наличия логов </t>
+  </si>
+  <si>
+    <t>MRTD-D036</t>
+  </si>
+  <si>
+    <t>Наличие логов после после запуска проложения</t>
   </si>
 </sst>
 </file>
@@ -420,7 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -476,9 +489,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -802,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D66165B-2A14-435A-B60B-AB909474BA78}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -837,50 +847,50 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -888,33 +898,33 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="126" x14ac:dyDescent="0.25">
@@ -922,16 +932,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -939,33 +949,33 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="270" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="330.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="283.5" x14ac:dyDescent="0.25">
@@ -973,16 +983,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -990,67 +1000,77 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="19"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
